--- a/src/assets/templates/teaching_template.xlsx
+++ b/src/assets/templates/teaching_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinhle/dev/typescript/lab-manamgement-web-v2/src/assets/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586013D-8844-0E46-8306-1FC4175E92B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D5354B-574C-D04F-839B-6CBA4EA6E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Order of teaching</t>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -66,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Code of the class.
@@ -83,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -92,7 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Name of the course
@@ -108,7 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -117,7 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Number of credits
@@ -131,21 +131,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The classes for the couses</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The classes for the couses</t>
         </r>
       </text>
     </comment>
@@ -157,7 +166,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -166,7 +175,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The day that the teaching start</t>
@@ -181,7 +190,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -190,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The room which is used by the teaching</t>
@@ -205,7 +214,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -214,7 +223,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Number of weeks the teaching need to use the lab</t>
@@ -229,7 +238,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Peter Burgs:</t>
         </r>
@@ -238,7 +247,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The week that the teaching will start</t>
@@ -250,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -289,43 +298,13 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>BDAN333977_01</t>
-  </si>
-  <si>
-    <t>Big Data Analysis</t>
-  </si>
-  <si>
-    <t>Theory</t>
-  </si>
-  <si>
-    <t>181330A, 181330B, 181330C</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>7-10</t>
-  </si>
-  <si>
-    <t>A217</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -361,14 +340,27 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -435,16 +427,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,22 +781,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="32.5" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -843,353 +840,331 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G2 H1:L2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 H1:L1 A2" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
